--- a/data/long_bre/P24_7-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_7-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>4,41</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37,57%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>50,84%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-52,33%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33,74%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 8,23</t>
+          <t>-4,66; 10,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 12,42</t>
+          <t>-4,55; 13,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-62,15; 346,04</t>
+          <t>-21,36; 2,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 313,56</t>
+          <t>-12,97; 21,19</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-58,83; 435,55</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-39,12; 275,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-83,82; 26,17</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-69,79; 429,1</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,71%</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 6,23</t>
+          <t>-15,73; 4,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 15,43</t>
+          <t>-8,19; 15,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 7,91</t>
+          <t>-9,65; 22,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 22,5</t>
+          <t>-17,25; 27,78</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 6,07</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-9,97; 21,9</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,34; 43,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-25,12; 69,01</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-53,12%</t>
+          <t>-8,51</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32,31%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-50,92%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,93%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 11,14</t>
+          <t>-5,15; 11,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 0,26</t>
+          <t>-17,29; 0,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,93; 283,15</t>
+          <t>-12,72; 16,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-81,1; 17,11</t>
+          <t>-26,99; 10,2</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-44,12; 222,28</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-80,86; 10,37</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-43,06; 141,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-63,45; 49,58</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 14,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 9,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 263,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 136,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>68,19%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,41%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 4,06</t>
+          <t>-2,3; 14,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 3,22</t>
+          <t>-4,86; 9,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 5,34</t>
+          <t>-8,65; 5,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 4,34</t>
+          <t>-9,96; 8,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 276,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-34,89; 131,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-63,65; 133,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-69,67; 319,88</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-6,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>-8,6</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 10,92</t>
+          <t>-20,14; 2,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 9,97</t>
+          <t>-15,28; 2,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 120,24</t>
+          <t>-23,66; 3,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 228,01</t>
+          <t>-24,63; 13,16</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-24,65; 3,41</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-17,81; 3,13</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-28,56; 5,12</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-27,49; 21,36</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-24,03%</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17,98%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>51,55%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>73,7%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>67,8%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 2,96</t>
+          <t>-6,99; 11,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 7,9</t>
+          <t>-2,5; 10,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 29,51</t>
+          <t>-1,72; 22,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,16; 106,88</t>
+          <t>-11,84; 21,07</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-39,33; 141,28</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-25,66; 255,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 274,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 418,62</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 13,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 22,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 13,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-22,2%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,26%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 9,61</t>
+          <t>-14,11; 3,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 7,91</t>
+          <t>-3,65; 7,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 114,62</t>
+          <t>-7,52; 5,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 91,29</t>
+          <t>-6,55; 10,59</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-58,62; 29,12</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-26,38; 103,21</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-47,53; 66,71</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-40,71; 152,85</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>46,24%</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-3,9%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-3,86%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 9,85</t>
+          <t>-7,65; 15,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 9,48</t>
+          <t>-11,5; 6,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 163,7</t>
+          <t>-10,92; 10,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 140,78</t>
+          <t>-14,88; 8,85</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; 25,67</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-14,32; 9,7</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 16,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,17; 12,98</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-7,15%</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 2,41</t>
+          <t>-14,85; 9,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 1,15</t>
+          <t>-9,31; 7,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 3,35</t>
+          <t>-9,95; 9,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 1,12</t>
+          <t>-8,96; 11,56</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-57,23; 118,48</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-42,87; 96,14</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-38,67; 67,46</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-43,96; 114,79</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 8,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 84,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 91,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>86,09%</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-24,76%</t>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>72,38%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,4; 17,63</t>
+          <t>-3,18; 9,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,14; 2,6</t>
+          <t>-2,0; 9,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 261,3</t>
+          <t>-0,32; 13,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 27,92</t>
+          <t>-6,33; 13,33</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-24,64; 138,64</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-16,27; 126,06</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-6,94; 221,75</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-36,01; 168,59</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>-8,57</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>-3,68</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-6,41%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-11,17%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-10,33%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,91; 1,07</t>
+          <t>-13,76; 3,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 17,54</t>
+          <t>-15,63; -0,59</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 1,6</t>
+          <t>-17,93; 2,81</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 28,77</t>
+          <t>-16,02; 9,31</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 4,88</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-19,61; -0,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-24,05; 4,26</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 15,15</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 8,81</t>
+          <t>-5,05; 8,07</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 3,02</t>
+          <t>-1,04; 10,85</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-39,82; 89,45</t>
+          <t>-7,86; 10,26</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 25,98</t>
+          <t>-11,18; 10,06</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-31,16; 80,45</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 107,0</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-29,42; 61,58</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-46,18; 75,95</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>111,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-3,08%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>1,73; 19,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 6,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2,61; 369,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-54,51; 108,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>86,88%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-28,99%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-13,15%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 17,05</t>
+          <t>0,54; 16,06</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 10,75</t>
+          <t>-10,54; 2,71</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 28,87</t>
+          <t>-14,02; 3,62</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 16,12</t>
+          <t>-12,26; 7,79</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 245,27</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-53,49; 22,65</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-67,46; 38,58</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-63,04; 105,44</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-45,79%</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>9,86</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-11,56%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 2,52</t>
+          <t>-19,07; 1,3</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 9,25</t>
+          <t>-0,33; 17,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-82,3; 29,04</t>
+          <t>-13,63; 12,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 80,01</t>
+          <t>-4,25; 25,25</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-23,71; 1,74</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 29,23</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-20,17; 21,83</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 52,25</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>-8,08</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-23,96%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-27,97%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,28</t>
+          <t>-7,28; 8,4</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,45</t>
+          <t>-12,48; 2,37</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>7,87; 86,57</t>
+          <t>-6,67; 16,11</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 48,19</t>
+          <t>-20,37; 3,56</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-41,84; 79,33</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-57,32; 19,75</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-22,8; 85,48</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-57,59; 14,97</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>11,71</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>-11,45</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-0,55%</t>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>126,32%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-0,18%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-68,93%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,69</t>
+          <t>3,27; 21,76</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,08</t>
+          <t>-7,32; 5,99</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 31,37</t>
+          <t>-22,43; -2,89</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 24,39</t>
+          <t>-10,83; 17,39</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 391,2</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-51,1; 96,98</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-90,45; -19,59</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-68,18; 280,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-5,38</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>5,36</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-6,8</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-7,29%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-1,55%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-9,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-17,35; 11,84</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-11,55; 8,91</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-9,34; 21,13</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-25,13; 10,65</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-22,08; 18,51</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 13,16</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-13,72; 40,64</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 16,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-6,34</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-37,3%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>36,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-25,08; 3,56</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 10,1</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; 18,35</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 19,21</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-82,25; 39,51</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-38,1; 79,05</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-31,87; 124,55</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-43,99; 211,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>44,1%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-21,73%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 8,17</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 4,23</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 0,8</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 6,59</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>7,99; 93,91</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 45,77</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-41,49; 8,26</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 67,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-2,0</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-6,6%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-9,55; -0,01</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 2,14</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 4,34</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-8,82; 4,74</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 0,0</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 2,94</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-10,07; 6,79</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 7,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 3,92</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 3,99</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 9,3</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 5,4</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-21,11; 34,41</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-16,86; 34,71</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 55,15</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-23,97; 32,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_7-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_7-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
